--- a/SchedulingData/dynamic10/pso/scheduling1_18.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling1_18.xlsx
@@ -462,26 +462,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>49.5</v>
+        <v>67.5</v>
       </c>
       <c r="E2" t="n">
-        <v>27.24</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -504,17 +504,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40.88</v>
+        <v>67.5</v>
       </c>
       <c r="D4" t="n">
-        <v>112.78</v>
+        <v>123.6</v>
       </c>
       <c r="E4" t="n">
-        <v>24.012</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="5">
@@ -523,74 +523,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>65.59999999999999</v>
+        <v>47.16</v>
       </c>
       <c r="E5" t="n">
-        <v>26.1</v>
+        <v>26.984</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>65.40000000000001</v>
+        <v>64.56</v>
       </c>
       <c r="E6" t="n">
-        <v>25.14</v>
+        <v>27.184</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49.5</v>
+        <v>64.56</v>
       </c>
       <c r="D7" t="n">
-        <v>93.04000000000001</v>
+        <v>108.26</v>
       </c>
       <c r="E7" t="n">
-        <v>24.016</v>
+        <v>23.944</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>82.7</v>
+        <v>49.5</v>
       </c>
       <c r="E8" t="n">
-        <v>25.38</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="9">
@@ -599,55 +599,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>65.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>126.46</v>
+        <v>53.8</v>
       </c>
       <c r="E9" t="n">
-        <v>22.124</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>82.7</v>
+        <v>123.6</v>
       </c>
       <c r="D10" t="n">
-        <v>145.3</v>
+        <v>183.72</v>
       </c>
       <c r="E10" t="n">
-        <v>21.24</v>
+        <v>20.008</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>126.46</v>
+        <v>40.88</v>
       </c>
       <c r="D11" t="n">
-        <v>163.06</v>
+        <v>106.7</v>
       </c>
       <c r="E11" t="n">
-        <v>19.604</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="12">
@@ -656,245 +656,245 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>106.7</v>
       </c>
       <c r="D12" t="n">
-        <v>58.8</v>
+        <v>176.4</v>
       </c>
       <c r="E12" t="n">
-        <v>25.32</v>
+        <v>18.76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>145.3</v>
+        <v>53.8</v>
       </c>
       <c r="D13" t="n">
-        <v>194.56</v>
+        <v>125.02</v>
       </c>
       <c r="E13" t="n">
-        <v>18.424</v>
+        <v>21.288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>58.8</v>
+        <v>125.02</v>
       </c>
       <c r="D14" t="n">
-        <v>119.62</v>
+        <v>175.52</v>
       </c>
       <c r="E14" t="n">
-        <v>22.328</v>
+        <v>17.368</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>112.78</v>
+        <v>47.16</v>
       </c>
       <c r="D15" t="n">
-        <v>168.32</v>
+        <v>144.06</v>
       </c>
       <c r="E15" t="n">
-        <v>19.588</v>
+        <v>22.364</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>163.06</v>
+        <v>183.72</v>
       </c>
       <c r="D16" t="n">
-        <v>210.66</v>
+        <v>249.16</v>
       </c>
       <c r="E16" t="n">
-        <v>16.484</v>
+        <v>15.584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>194.56</v>
+        <v>175.52</v>
       </c>
       <c r="D17" t="n">
-        <v>245.82</v>
+        <v>228.02</v>
       </c>
       <c r="E17" t="n">
-        <v>15.408</v>
+        <v>14.248</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>65.59999999999999</v>
+        <v>228.02</v>
       </c>
       <c r="D18" t="n">
-        <v>131.76</v>
+        <v>271.36</v>
       </c>
       <c r="E18" t="n">
-        <v>23.084</v>
+        <v>11.544</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>245.82</v>
+        <v>271.36</v>
       </c>
       <c r="D19" t="n">
-        <v>286.24</v>
+        <v>327.62</v>
       </c>
       <c r="E19" t="n">
-        <v>12.496</v>
+        <v>8.528</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>119.62</v>
+        <v>108.26</v>
       </c>
       <c r="D20" t="n">
-        <v>165.78</v>
+        <v>175.66</v>
       </c>
       <c r="E20" t="n">
-        <v>19.832</v>
+        <v>19.804</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>210.66</v>
+        <v>249.16</v>
       </c>
       <c r="D21" t="n">
-        <v>259.6</v>
+        <v>289.02</v>
       </c>
       <c r="E21" t="n">
-        <v>13.22</v>
+        <v>12.728</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>168.32</v>
+        <v>49.5</v>
       </c>
       <c r="D22" t="n">
-        <v>240.62</v>
+        <v>123.04</v>
       </c>
       <c r="E22" t="n">
-        <v>14.968</v>
+        <v>23.976</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>259.6</v>
+        <v>176.4</v>
       </c>
       <c r="D23" t="n">
-        <v>325</v>
+        <v>225.66</v>
       </c>
       <c r="E23" t="n">
-        <v>10.8</v>
+        <v>14.964</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>286.24</v>
+        <v>123.04</v>
       </c>
       <c r="D24" t="n">
-        <v>336.1</v>
+        <v>198.24</v>
       </c>
       <c r="E24" t="n">
-        <v>9.640000000000001</v>
+        <v>20.076</v>
       </c>
     </row>
     <row r="25">
@@ -903,55 +903,55 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>93.04000000000001</v>
+        <v>198.24</v>
       </c>
       <c r="D25" t="n">
-        <v>141.8</v>
+        <v>256.48</v>
       </c>
       <c r="E25" t="n">
-        <v>21.26</v>
+        <v>16.852</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>131.76</v>
+        <v>289.02</v>
       </c>
       <c r="D26" t="n">
-        <v>207.98</v>
+        <v>330.38</v>
       </c>
       <c r="E26" t="n">
-        <v>19.052</v>
+        <v>10.232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>240.62</v>
+        <v>144.06</v>
       </c>
       <c r="D27" t="n">
-        <v>279.42</v>
+        <v>216.46</v>
       </c>
       <c r="E27" t="n">
-        <v>11.728</v>
+        <v>17.744</v>
       </c>
     </row>
     <row r="28">
@@ -960,36 +960,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>141.8</v>
+        <v>256.48</v>
       </c>
       <c r="D28" t="n">
-        <v>196.06</v>
+        <v>311.68</v>
       </c>
       <c r="E28" t="n">
-        <v>17.464</v>
+        <v>14.432</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>196.06</v>
+        <v>175.66</v>
       </c>
       <c r="D29" t="n">
-        <v>271.96</v>
+        <v>246.86</v>
       </c>
       <c r="E29" t="n">
-        <v>12.984</v>
+        <v>17.284</v>
       </c>
     </row>
     <row r="30">
@@ -998,36 +998,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>207.98</v>
+        <v>216.46</v>
       </c>
       <c r="D30" t="n">
-        <v>258.48</v>
+        <v>262.82</v>
       </c>
       <c r="E30" t="n">
-        <v>15.132</v>
+        <v>14.728</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>258.48</v>
+        <v>246.86</v>
       </c>
       <c r="D31" t="n">
-        <v>311.92</v>
+        <v>315.32</v>
       </c>
       <c r="E31" t="n">
-        <v>12.428</v>
+        <v>14.528</v>
       </c>
     </row>
   </sheetData>
